--- a/source-data/spain/spain_regions.xlsx
+++ b/source-data/spain/spain_regions.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-mortality-tracker/source-data/spain/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/spain/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEA979F-4AD6-9748-BC83-0F07541DA3A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="15780" yWindow="1100" windowWidth="11960" windowHeight="16240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spain_regions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -44,36 +45,18 @@
     <t>Spain</t>
   </si>
   <si>
-    <t>Andalucía</t>
-  </si>
-  <si>
     <t>Aragón</t>
   </si>
   <si>
-    <t>Balears, Illes</t>
-  </si>
-  <si>
-    <t>Canarias</t>
-  </si>
-  <si>
     <t>Cantabria</t>
   </si>
   <si>
-    <t>Cataluña</t>
-  </si>
-  <si>
-    <t>Comunitat Valenciana</t>
-  </si>
-  <si>
     <t>Extremadura</t>
   </si>
   <si>
     <t>Galicia</t>
   </si>
   <si>
-    <t>País Vasco</t>
-  </si>
-  <si>
     <t>Ceuta</t>
   </si>
   <si>
@@ -95,17 +78,35 @@
     <t>Murcia</t>
   </si>
   <si>
-    <t>Navarra</t>
-  </si>
-  <si>
     <t>Castile-La Mancha</t>
+  </si>
+  <si>
+    <t>Basque Country</t>
+  </si>
+  <si>
+    <t>Balearics</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Andalusia</t>
+  </si>
+  <si>
+    <t>Catalonia</t>
+  </si>
+  <si>
+    <t>Navarre</t>
+  </si>
+  <si>
+    <t>Canary Islands</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,6 +146,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -412,19 +416,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -452,12 +456,12 @@
         <v>46733038</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -466,12 +470,12 @@
         <v>8405294</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -480,12 +484,12 @@
         <v>1316064</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -494,12 +498,12 @@
         <v>1024381</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -508,12 +512,12 @@
         <v>1176627</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -522,12 +526,12 @@
         <v>2188626</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -536,12 +540,12 @@
         <v>580997</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -550,12 +554,12 @@
         <v>2410819</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -564,12 +568,12 @@
         <v>2030807</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -578,12 +582,12 @@
         <v>7516544</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -592,12 +596,12 @@
         <v>4948411</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -606,12 +610,12 @@
         <v>1067272</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -620,12 +624,12 @@
         <v>2699299</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -634,12 +638,12 @@
         <v>6587711</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -648,7 +652,7 @@
         <v>1479098</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -662,12 +666,12 @@
         <v>646197</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -676,12 +680,12 @@
         <v>2172591</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -690,12 +694,12 @@
         <v>312719</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -704,12 +708,12 @@
         <v>84913</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>19</v>
